--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/42/word_level_predictions_42.xlsx
@@ -1438,624 +1438,624 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" t="n">
         <v>2</v>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" t="n">
         <v>2</v>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" t="n">
         <v>2</v>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" t="n">
         <v>2</v>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" t="n">
         <v>3</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" t="n">
         <v>2</v>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" t="n">
         <v>4</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" t="n">
         <v>5</v>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" t="n">
         <v>2</v>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" t="n">
         <v>6</v>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" t="n">
         <v>2</v>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" t="n">
         <v>7</v>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" t="n">
         <v>2</v>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" t="n">
         <v>8</v>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" t="n">
         <v>9</v>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" t="n">
         <v>2</v>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" t="n">
         <v>10</v>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" t="n">
         <v>2</v>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>30m</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" t="n">
         <v>11</v>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3778,312 +3778,312 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C65" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E65" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K65" t="b">
-        <v>1</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K66" t="b">
-        <v>1</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E70" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="G70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5806,468 +5806,468 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C104" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E104" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G104" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K104" t="b">
-        <v>1</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E105" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F105" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="G105" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E106" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F106" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="G106" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C107" s="2" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E107" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F107" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K107" t="b">
-        <v>1</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="G107" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
+      <c r="A108" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C108" s="2" t="inlineStr">
         <is>
           <t>manned</t>
         </is>
       </c>
-      <c r="D108" t="n">
+      <c r="D108" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E108" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F108" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K108" t="b">
-        <v>1</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="G108" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
+      <c r="A109" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C109" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D109" t="n">
+      <c r="D109" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E109" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F109" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G109" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K109" t="b">
-        <v>1</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="G109" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C110" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D110" t="n">
+      <c r="D110" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="E110" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F110" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K110" t="b">
-        <v>1</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="G110" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C111" s="2" t="inlineStr">
         <is>
           <t>anti-collision</t>
         </is>
       </c>
-      <c r="D111" t="n">
+      <c r="D111" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="E111" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="F111" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="G111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" s="2" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="F112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="G112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8146,574 +8146,574 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
+      <c r="A149" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C149" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D149" t="n">
+      <c r="D149" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="E149" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="F149" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G149" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I149" t="b">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K149" t="b">
-        <v>1</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="G149" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
+      <c r="A150" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B150" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C150" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D150" t="n">
-        <v>1</v>
-      </c>
-      <c r="E150" t="inlineStr">
+      <c r="D150" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="F150" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G150" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I150" t="b">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K150" t="b">
-        <v>1</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="G150" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J150" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
+      <c r="A151" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B151" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C151" s="2" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D151" t="n">
+      <c r="D151" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="E151" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="F151" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G151" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I151" t="b">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K151" t="b">
-        <v>1</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="G151" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
+      <c r="A152" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B152" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C152" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D152" t="n">
+      <c r="D152" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="E152" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="F152" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G152" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I152" t="b">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K152" t="b">
-        <v>1</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="G152" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
+      <c r="A153" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B153" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C153" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D153" t="n">
+      <c r="D153" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="E153" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="F153" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G153" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I153" t="b">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K153" t="b">
-        <v>1</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="G153" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J153" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
+      <c r="A154" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B154" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C154" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D154" t="n">
+      <c r="D154" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E154" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="F154" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G154" t="b">
-        <v>1</v>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I154" t="b">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K154" t="b">
-        <v>1</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="G154" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H154" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J154" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K154" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L154" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
+      <c r="A155" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C155" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D155" t="n">
+      <c r="D155" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="E155" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="F155" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G155" t="b">
-        <v>1</v>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I155" t="b">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K155" t="b">
-        <v>1</v>
-      </c>
-      <c r="L155" t="inlineStr">
+      <c r="G155" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J155" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
+      <c r="A156" t="n">
         <v>10</v>
       </c>
-      <c r="B156" s="2" t="inlineStr">
+      <c r="B156" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C156" s="2" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D156" s="2" t="n">
+      <c r="D156" t="n">
         <v>7</v>
       </c>
-      <c r="E156" s="2" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F156" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G156" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H156" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I156" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K156" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L156" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I156" t="b">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n">
+      <c r="A157" t="n">
         <v>10</v>
       </c>
-      <c r="B157" s="2" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C157" s="2" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D157" s="2" t="n">
+      <c r="D157" t="n">
         <v>8</v>
       </c>
-      <c r="E157" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F157" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G157" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I157" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L157" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G157" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I157" t="b">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" t="n">
         <v>10</v>
       </c>
-      <c r="B158" s="2" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C158" s="2" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D158" s="2" t="n">
+      <c r="D158" t="n">
         <v>9</v>
       </c>
-      <c r="E158" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F158" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G158" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L158" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" t="n">
         <v>10</v>
       </c>
-      <c r="B159" s="2" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C159" s="2" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D159" s="2" t="n">
+      <c r="D159" t="n">
         <v>10</v>
       </c>
-      <c r="E159" s="2" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F159" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G159" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L159" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G159" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10434,312 +10434,312 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
+      <c r="A193" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B193" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C193" s="2" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="D193" t="n">
+      <c r="D193" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="E193" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="F193" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G193" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I193" t="b">
-        <v>1</v>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K193" t="b">
-        <v>1</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="G193" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J193" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L193" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
+      <c r="A194" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B194" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="C194" s="2" t="inlineStr">
         <is>
           <t>violate</t>
         </is>
       </c>
-      <c r="D194" t="n">
+      <c r="D194" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G194" t="b">
-        <v>1</v>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I194" t="b">
-        <v>1</v>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K194" t="b">
-        <v>1</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G194" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J194" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L194" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
+      <c r="A195" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B195" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C195" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D195" t="n">
+      <c r="D195" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G195" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I195" t="b">
-        <v>1</v>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K195" t="b">
-        <v>1</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E195" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F195" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G195" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J195" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L195" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
+      <c r="A196" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B196" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="C196" s="2" t="inlineStr">
         <is>
           <t>policies</t>
         </is>
       </c>
-      <c r="D196" t="n">
+      <c r="D196" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G196" t="b">
-        <v>1</v>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I196" t="b">
-        <v>1</v>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K196" t="b">
-        <v>1</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E196" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F196" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G196" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I196" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J196" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K196" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L196" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E197" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F256" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G256" s="2" t="b">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="L256" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem4/42/word_level_predictions_42.xlsx
@@ -1438,624 +1438,624 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="D21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>returning</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="G22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="G23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K24" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="G25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>30m</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3778,312 +3778,312 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" t="n">
         <v>4</v>
       </c>
-      <c r="B65" s="2" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D65" s="2" t="n">
+      <c r="D65" t="n">
         <v>4</v>
       </c>
-      <c r="E65" s="2" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L65" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" t="n">
         <v>4</v>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" t="n">
         <v>5</v>
       </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66" s="2" t="inlineStr">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" t="n">
         <v>4</v>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D67" s="2" t="n">
+      <c r="D67" t="n">
         <v>6</v>
       </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2" t="inlineStr">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" t="n">
         <v>4</v>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" t="n">
         <v>7</v>
       </c>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L68" s="2" t="inlineStr">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" t="n">
         <v>4</v>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" t="n">
         <v>8</v>
       </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2" t="inlineStr">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" t="n">
         <v>4</v>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D70" s="2" t="n">
+      <c r="D70" t="n">
         <v>9</v>
       </c>
-      <c r="E70" s="2" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G70" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70" s="2" t="inlineStr">
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5806,468 +5806,468 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" t="n">
         <v>7</v>
       </c>
-      <c r="B104" s="2" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" s="2" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D104" s="2" t="n">
+      <c r="D104" t="n">
         <v>3</v>
       </c>
-      <c r="E104" s="2" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G104" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L104" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" t="n">
         <v>7</v>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" s="2" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" t="n">
         <v>4</v>
       </c>
-      <c r="E105" s="2" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F105" s="2" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G105" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L105" s="2" t="inlineStr">
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" t="n">
         <v>7</v>
       </c>
-      <c r="B106" s="2" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" s="2" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" t="n">
         <v>5</v>
       </c>
-      <c r="E106" s="2" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F106" s="2" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G106" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2" t="inlineStr">
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" t="n">
         <v>7</v>
       </c>
-      <c r="B107" s="2" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C107" s="2" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" t="n">
         <v>6</v>
       </c>
-      <c r="E107" s="2" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F107" s="2" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G107" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" s="2" t="inlineStr">
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" t="n">
         <v>7</v>
       </c>
-      <c r="B108" s="2" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C108" s="2" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>manned</t>
         </is>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" t="n">
         <v>7</v>
       </c>
-      <c r="E108" s="2" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F108" s="2" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G108" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L108" s="2" t="inlineStr">
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" t="n">
         <v>7</v>
       </c>
-      <c r="B109" s="2" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C109" s="2" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" t="n">
         <v>8</v>
       </c>
-      <c r="E109" s="2" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F109" s="2" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G109" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L109" s="2" t="inlineStr">
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" t="n">
         <v>7</v>
       </c>
-      <c r="B110" s="2" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C110" s="2" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n">
+      <c r="D110" t="n">
         <v>9</v>
       </c>
-      <c r="E110" s="2" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F110" s="2" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G110" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2" t="inlineStr">
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" t="n">
         <v>7</v>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C111" s="2" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>anti-collision</t>
         </is>
       </c>
-      <c r="D111" s="2" t="n">
+      <c r="D111" t="n">
         <v>10</v>
       </c>
-      <c r="E111" s="2" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F111" s="2" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G111" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L111" s="2" t="inlineStr">
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" t="n">
         <v>7</v>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C112" s="2" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" t="n">
         <v>11</v>
       </c>
-      <c r="E112" s="2" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" s="2" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="inlineStr">
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8146,574 +8146,574 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" t="n">
         <v>10</v>
       </c>
-      <c r="B149" s="2" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C149" s="2" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D149" s="2" t="n">
+      <c r="D149" t="n">
         <v>0</v>
       </c>
-      <c r="E149" s="2" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F149" s="2" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G149" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I149" s="2" t="b">
+      <c r="G149" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I149" t="b">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>10</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G150" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>10</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>returning</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>2</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G151" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I151" t="b">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>10</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>3</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G152" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I152" t="b">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>10</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>4</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G153" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I153" t="b">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>10</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>5</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G154" t="b">
+        <v>1</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I154" t="b">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>10</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Point</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>6</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G155" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I155" t="b">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>RTH</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E156" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G156" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I156" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J156" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K156" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K149" s="2" t="b">
+      <c r="L156" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>Altitude</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E157" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F157" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G157" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I157" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J157" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K157" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L149" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="L157" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B150" s="2" t="inlineStr">
+      <c r="B158" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C150" s="2" t="inlineStr">
+      <c r="C158" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D150" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E150" s="2" t="inlineStr">
+      <c r="D158" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E158" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F158" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F150" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G150" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I150" s="2" t="b">
+      <c r="G158" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K158" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K150" s="2" t="b">
+      <c r="L158" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>nnn</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G159" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K159" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L150" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B151" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
-        </is>
-      </c>
-      <c r="C151" s="2" t="inlineStr">
-        <is>
-          <t>returning</t>
-        </is>
-      </c>
-      <c r="D151" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E151" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F151" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G151" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L151" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B152" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
-        </is>
-      </c>
-      <c r="C152" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D152" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E152" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F152" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G152" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L152" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B153" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
-        </is>
-      </c>
-      <c r="C153" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D153" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E153" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F153" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G153" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L153" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B154" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
-        </is>
-      </c>
-      <c r="C154" s="2" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D154" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E154" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F154" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G154" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H154" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K154" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L154" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B155" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
-        </is>
-      </c>
-      <c r="C155" s="2" t="inlineStr">
-        <is>
-          <t>Point</t>
-        </is>
-      </c>
-      <c r="D155" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E155" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F155" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G155" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H155" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L155" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>10</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>RTH</t>
-        </is>
-      </c>
-      <c r="D156" t="n">
-        <v>7</v>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G156" t="b">
-        <v>1</v>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I156" t="b">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K156" t="b">
-        <v>1</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>10</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Altitude</t>
-        </is>
-      </c>
-      <c r="D157" t="n">
-        <v>8</v>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G157" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I157" t="b">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K157" t="b">
-        <v>1</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>10</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D158" t="n">
-        <v>9</v>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G158" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" t="b">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K158" t="b">
-        <v>1</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>10</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>nnn</t>
-        </is>
-      </c>
-      <c r="D159" t="n">
-        <v>10</v>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G159" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" t="b">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K159" t="b">
-        <v>1</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="L159" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10434,312 +10434,312 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
+      <c r="A193" t="n">
         <v>12</v>
       </c>
-      <c r="B193" s="2" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C193" s="2" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="D193" s="2" t="n">
+      <c r="D193" t="n">
         <v>4</v>
       </c>
-      <c r="E193" s="2" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F193" s="2" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G193" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L193" s="2" t="inlineStr">
+      <c r="G193" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I193" t="b">
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K193" t="b">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n">
+      <c r="A194" t="n">
         <v>12</v>
       </c>
-      <c r="B194" s="2" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C194" s="2" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>violate</t>
         </is>
       </c>
-      <c r="D194" s="2" t="n">
+      <c r="D194" t="n">
         <v>5</v>
       </c>
-      <c r="E194" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F194" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G194" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H194" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I194" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K194" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L194" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G194" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I194" t="b">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K194" t="b">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n">
+      <c r="A195" t="n">
         <v>12</v>
       </c>
-      <c r="B195" s="2" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C195" s="2" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D195" s="2" t="n">
+      <c r="D195" t="n">
         <v>6</v>
       </c>
-      <c r="E195" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F195" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G195" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L195" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G195" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I195" t="b">
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K195" t="b">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="n">
+      <c r="A196" t="n">
         <v>12</v>
       </c>
-      <c r="B196" s="2" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C196" s="2" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>policies</t>
         </is>
       </c>
-      <c r="D196" s="2" t="n">
+      <c r="D196" t="n">
         <v>7</v>
       </c>
-      <c r="E196" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F196" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G196" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H196" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I196" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K196" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L196" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G196" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I196" t="b">
+        <v>1</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K196" t="b">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>12</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" t="n">
         <v>8</v>
       </c>
-      <c r="E197" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F197" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>12</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
+      <c r="D198" t="n">
         <v>9</v>
       </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="F253" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G253" s="2" t="b">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="L253" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="F256" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G256" s="2" t="b">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="L256" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
